--- a/data/valid_dataset.xlsx
+++ b/data/valid_dataset.xlsx
@@ -447,37 +447,37 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Предлагаю кроме брелков добавить еще рулетки для их крепления к одежде</t>
+          <t>я подписался за 300 рублей в месяц Ph+Lr - очень здорово...даже обновления приходят...</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Возможно, на велике, хотя там стало столько народу, что лучше организовать свою МП в другой день )</t>
+          <t>Выглядит на фото плотной, ощущение что поставь - будет стоять как каркас :) В реальности тонкая и очень легкая, хорошо тянется, как тонкий спортивный костюм. Размер L ближе к 52.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Вещь! Теперь мусорка файлов выросла на 1 тб :) Который всегда с тобой.</t>
+          <t>2й вариант кажется наиболее интересным</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -486,24 +486,24 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Котик-невероятный!</t>
+          <t>В данном контексте я гирю рассматриваю, как возможность привязать её к поясу в качестве утяжелителя.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Илья, поздравляю!!!</t>
+          <t>Очень красивые фото!</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -512,63 +512,63 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>В общем, с торрентов не скачать. Если кто-то заинтересовался материалами, у меня есть скачанное видео 4 выступлений.</t>
+          <t>Очень позитивно :)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>эх, я уже козу купил. Мы с ней 2 года неразлучны, у нее панические атаки, когда я уезжаю на рассвете.. (</t>
+          <t>добавил пробелов кое-где, но штука интересная..</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>237</v>
+        <v>394</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>+1 нужна трансляция в lync</t>
+          <t>У меня возникла проблема. Имею около 100 песо и я НИЧЕГО не хочу из песо-маркета. Предлагаю дать возможность людям купить то, что они хотят. Например дать возможность пополнить песами свой компенсационный пакет (хотябы раз в год) и потратить на любой гаджет или дать возможность приобрести подарочную карту какого-нибудь магазина, а в маркете оставить фирменные шмотки/брелоки/кружки/календари и пр. по спец. заказу Peter-Service и не превращать маркет в барахолку.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>427</v>
+        <v>257</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>А вот этого я не знаю, не я новосить писал ;)</t>
+          <t>логично=) тогда нужно довольно хитро составить опросник, чтобы, кроме желания/не желания иметь инфу по ЕБ, вытащить из людей еще и предпочтительные форматы и режимы подачи этой инфы=)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>75</v>
+        <v>496</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Обменяю внешний аккумулятор на термостакан (не кружку и ничего другого) :)  если есть желающие- напишите, пожалуйста) предпочтительно из Спб)</t>
+          <t>Удобрный и хорошо держит температуру</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -577,24 +577,24 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>А где же Raspberry PI? :)</t>
+          <t>Я иду!)))</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Планируются какие-либо просветительские мероприятия? Расширение сортировки отходов в офисе?  Хотелось бы освещения темы представителями экосообществ. Во Владивостоке могу порекомендовать организацию, ребята занимаются вопросами экологии в нашем крае, в том числе проводят лекции по экологии и обращению с отходами для компаний и школ. Местные представители будут полезнее, т.к. ситуация с сортировкой/переработкой в каждом регионе разная, из-за отсутствия централизованной программы в стране.  Было забавно когда нам поставили урны для сортировки пластик/бумага/(что-то еще), в "пластик" летели фракции которые в нашем регионе не перерабатывались на тот момент, в "бумагу" - использованные салфетки и "бумажные"" стаканчики (спойлер - они не бумажные). Ходили слухи что работники клининга эту сортировку скидывали в общий пакет с мусором)</t>
+          <t>Коллеги, давайте раз уж пошли дорогие товары в песомаркете предлагаю добавить стационарный PlayStation</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -603,11 +603,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Пообщалась. Желания прям уходить из группы нет, просто сейчас скучновато, поэтому с радостью поучаствует в других проектах. С Аникиным 2 года назад были недопонимания. Сейчас готов пообщаться, в целом ко всему настроен позитивно. С Мартюшовым готов погворить, но он сейчас в отпуске. Отправила о нем инфо Аникину.</t>
+          <t>Марк, привет. Сотрудников из других филиалов как планируете подключать к обсуждению?</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -616,11 +616,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Фотографии просто удивительные 😍 надо монетизировать, однозначно))</t>
+          <t>Спасибо огромное за эту возможность, провести корпоратив с командой! Собрались, приехали на выходные в Питер, отлично провели время и поработать успели!</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -629,24 +629,24 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>304</v>
+        <v>507</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Мне казалось, что все-таки в маркете полезные либо полезно-развивающие товары (разбериПи, Лего). А чисто развлекательные - перебор. Хотя я тоже хочу PS )</t>
+          <t>Я тоже был уверен что 10 !   Видимо отсчет с бороды пошёл. Поздравляю!</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Спасибо всем, кто принимал участие в создании Advent Calendar-ика, всем творческим, замечательным и неравнодушным людям, подарившим нам отличное настроение! Спасибо «сценаристам», «актерам» и «режиссерам»! Очень круто, креативно, вдохновляюще!</t>
+          <t>Илья, поздравляю!!!</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -655,11 +655,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Полотенце супер! Яркое как на картинке! Большое и мягкое! Всем рекомендую!</t>
+          <t>И задорнее!</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -668,37 +668,37 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Бессмысленный товар. Я думал светится хотя бы белым. А на деле там несколько красных светодиодов. Сумка из растягивающегося материала. Можно конечно в неё засунуть телефон на 6 дюймов, но выглядит он как кирпич в колготе.</t>
+          <t>УРА!!! Сложный проект и крутая команда, поздравляю!</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Да, тоже подписался... только там 299 рублей в месяц. И "синхронизация файлов через облако" пока что на тестовой стадии. Надо "тестовый доступ" запрашивать, если интересует эта фича...</t>
+          <t>Спасибо )  - Участие в регате: в зависимости от регаты и лодки. В моем случае яхта входит в ассоциацию яхт класса Л6, там еще сохранился некоторый оплот коммунизма =) Экипажи сами содержат лодки, устраивают субботники в яхт-клубе и т.д. Поэтому и взносы там небольшие. Есть взнос в судовую кассу (на ремонт, еду между гонками, шашлыки и т.д.) порядка 1 - 1,5 тыс в месяц. Единовременный взнос на гонку тоже примерно в этих лимитах. Но нужно еще включать затраты на билеты до места старта (или на бенз), на еду, шашлыки и другие маленькие радости жизни ) Есть чисто коммерческие истории: можно купить сертификат на практику на Santer'ах на сезон за 35 тыс. и учебно-тренировочно гоняться с такими же лодками хоть каждый день. Никаких судовых касс там нет.  Еще можно весной прийти в яхт-клуб на Петровской косе и поговорить с экипажами лодок. Там наверняка будут места и ребята предложат войти в экипаж на добровольных началах (или за чай с печеньками) - Выйти покататься - в прошлом сезоне можно было договориться за примерно 12 - 15 тыс за лодку (8 человек) - арендовать полностью или подсесть в сборный экипаж на выбор. Соответствующие группы можно найти в ВК. Уже на борту по договоренности с Кэпом можно попроситься поработать со шкотами (поуправлять парусами). Это индивидуально, но обычно не отказывают, если условия позволяют. - Походы - надо искать. Приглашения тоже мелькают в яхтенных группах в ВК, но надо понимать, что ты оказываешься на несколько дней в довольно тесном пространстве с одними и теми же людьми. И хорошо, если люди тебе импонируют. Так что тут осторожней ;) Приглашения на походы обычно прилетают, когда уже крутишься в яхтенной теме и тебя более-менее знают.  - Из доступных мест у нас осталось не так много. Яхт-клубы в Петербурге с завидным упорством закрывают. Из последних оплотов нормального (не элитного) яхтинга по сути только Центральный Речной Яхт Клуб Профсоюзов на Петровской косе. Там и сосредоточены и яхте</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Супер-пуперская предлагаю!</t>
+          <t>Молодцы!  Классно все сделали, и все "особенности" клиента не смогли вам помешать ;-)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -707,11 +707,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>думала уже не тест, все разобралась, что это тест)</t>
+          <t>а можно адрес американского фонда, куда пожертвования направлять?</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -720,24 +720,24 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Это будет интересно! Жду с нетерпением :)</t>
+          <t>Коллеги, подскажите, как из большого отсека контейнеры доставать? Переворачивая только? Или там ручки какие есть у самих контейнеров? А если переворачивать, то не выливается/вываливается содержимое?</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>нет, не семь, больше</t>
+          <t>+1 за парный турнир</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -746,11 +746,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Было бы конечно неплохо вообще разделить те кто делают на силу, и те кто занимают читерством с помощью рывка. Результаты таких двух подходов будут существенно различаться и сравнивать их просто неправильно.</t>
+          <t>Когда, когда же появится мультиинструмент?</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -759,11 +759,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Приезжайте еще обязательно на Байкал со стороны республики Бурятии!  ​​​​​​​Так жалко, что к нам так и не долетают/доезжают туристы. А ведь у нас совершенно другой рельеф и другие виды. В конце концов потрясающие заливы и песчанные пляжи, на которых, если повезет с погодой,можно с превеликим удовольствие искупаться. Можно поплавать на теплоходе по Чивыркуйскому заливу, посетить Баргузинский заповедник, искупаться там в горячих источниках, в конце концов заехать на Ушканьи острова, где сможете понаблюдать за милыми нерпочками. Посетить город Улан-Удэ! вы удивитесь как местный буддиский колорит отличается от Иркутского "вайба" (по секрету скажу у нас в Бурятии буузы вкуснее ) . Посетить буддийский храм - Иволгинский дацан , где обязательно необходимо сходить к астрологу и посмотреть на нетленное тело Хамбо ламы Итегелова. Можно сказать что окунетесь в тот же Буддизм , что на Бали или в Тайланде. Только у нас в России.  Обязательно приезжайте дорогие Nexign - цы &lt;З</t>
+          <t>Спасибо!!! Очень приятно!</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -772,37 +772,37 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Саша, классный рассказ. Отличное хобби! Можешь рассказать про деньги?  - Сколько стоит в среднем участие в регате?   - Просто выйти покататься с коллегами в выходной   - Поучиться ставить парус  - Сходить в поход на яхте  - Съездить куда-нибудь в доступное место на недельку покататься в роли матроса</t>
+          <t>в Крыму тоже?</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>420</v>
+        <v>103</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Мне кажется для первого турнира можно любой из способов составления команд применить. Поэтому предлагаю оставить как есть ибо составление команд было, по большей, части добровольным. На следующий турнир собрать уже исходя из +/-</t>
+          <t>Почему то нет возможности написать отзыв</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Появятся ли внешние жёсткие диски на 1000Гб?</t>
+          <t>Игорь, идею заслал в Мегу</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -811,24 +811,24 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Яркий цвет и принт ребенок оценил. Отличное качество, после стирки цвет и форма не изменились</t>
+          <t>кто-нибудь покупал? Как в эксплуатации?</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>219</v>
+        <v>355</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>:) Самовар хорошо получился</t>
+          <t>Паша, любые предложения по месту и реквизиту для проведения, а так же регламенту соревнований приветствуются :-)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -837,37 +837,37 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>17</v>
+        <v>503</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Коллеги, добрый день!  По поводу заботы об окружающей среде, может стоит отказаться от чая в пакетиках? гринпис очень просит от них отказаться))). Может стоит проработать механизм использования листового чая в офисе? например тут есть инфа: https://greenpeace.ru/blogs/2020/06/17/5-neozhidannyh-veshhej-v-kotoryh-est-plastik/</t>
+          <t>Классная идея!!!)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Отлично! :))) Спасибо</t>
+          <t>нет, не семь, больше</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>345</v>
+        <v>101</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ура. Харды и лего! :)</t>
+          <t>Хорош под мелкий 13 ноут</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -876,37 +876,37 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Очень красиво, спасибо!</t>
+          <t>Жалко, что ты не мне досталась(</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Надеюсь либо машину либо квартиру!</t>
+          <t>Берем на любой проект!</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Коллеги, спасибо за ваши предложения! Мы обязательно их рассмотрим и выберем наиболее устраивающие все стороны варианты.</t>
+          <t>Это будет интересно! Жду с нетерпением :)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -915,11 +915,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>карта ультры рулит - берем ее и покупаем ровно тот хард, который нужен (и не только хард).</t>
+          <t>по датам согласен</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -928,24 +928,24 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Жалко, что ты не мне досталась(</t>
+          <t>Рулетки для крепления к одежде продаются у метро Чернышевская в Комусе по цене около 100 руб. Но удобнее, конечно, сразу с брелком их получать.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Артем, весы для багажа рассчитаны на максимальный груз 50 кг</t>
+          <t>Виталик, хорошо, обсуждение проведено, запись сделана. Но как посмотреть, в тезисном виде, о чем договорились и что планируется делать/сделать по результатам обсуждения?</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -954,24 +954,24 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Спасибо за игру, было очень интересно и познавательно. Команда billing.ru заняла 4ое место из 9ти команд в своей дебютной игре!</t>
+          <t>Меня в тенис запишите, давайте надерем им задницу)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>+1 поболеть на нашей территории</t>
+          <t>Коллеги, просьба ответивших в опросе согласием на приобретение хоккея отписать мне в почту (раз здесь это сделать не получается) о согласии/несогласии приобретения Stiga на указанных выше условиях (350-400 рублей) или приобретении Торнео. Не отписавшихся за завтра (03.03) считаю "передумавшими". Утром 4го подбиваю итог. А далее собираем деньги и покупаем (на этой неделе) или забываем о хоккее.</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -980,11 +980,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Вот как школа "ниичаво" закаляет характер. ))</t>
+          <t>Денис, ты как-то живешь сильно в будущем: мы не в РнД - все наши работы по прежнему в трекере :)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -993,24 +993,24 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Все в наших руках! 🤝</t>
+          <t>Николай, кстати смазка есть в шкафу маленькой комнаты.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>никто не хочет получить чудеснейший магнитный планнер в обмен на что угодно? XD</t>
+          <t>Очень удобный и вместительный экстендер. Рекомендую!</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1019,11 +1019,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>сориентируйте по размерам пожалуйста</t>
+          <t>И как делиться будем если для эстафеты?</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1032,89 +1032,89 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Отчество добавим при следующем патче ;)</t>
+          <t>надо всем подписаться на новости группы. Хотя возможно надо и на саму тему подписаться</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>такая структура очень неудобна для использования. чтобы пригласить в публичный! канал нашей команды к примеру разработчика, нужно добавлять его в  нашу команду, что может сделать только руководитель группы. Таким образом публичный канал является вовсе не публичным, а его публичность ограничивается группой. такая структура очень неудобна для использования. чтобы пригласить в публичный! канал нашей команды к примеру разработчика, нужно добавлять его в  нашу команду, что может сделать только руководитель группы. Таким образом публичный канал является вовсе не публичным, а его публичность ограничивается группой.</t>
+          <t>Коллеги, добрый день!  По поводу заботы об окружающей среде, может стоит отказаться от чая в пакетиках? гринпис очень просит от них отказаться))). Может стоит проработать механизм использования листового чая в офисе? например тут есть инфа: https://greenpeace.ru/blogs/2020/06/17/5-neozhidannyh-veshhej-v-kotoryh-est-plastik/</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Предлагаю добавить Браслет Jawbone Up 2.0 http://jawbone.com/store/buy/up24</t>
+          <t>что за пессимизм?</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>485</v>
+        <v>219</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Для текущего состояния сети можно сделать клиента-браузера. Аналог первого клиента для одноклассников. Но как минимум нужно будет открыть доступ к сети из вне.</t>
+          <t>:) Самовар хорошо получился</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ну ничего себе! Что ни ответ - восторги) Особенно меня поразил факт про образование (дипломная работа и далее лаборатория). Что-то магически-фантастическое :)</t>
+          <t>Саша, забудь, у нас в маркете одни сувениры, да одежда с портпледами.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Очень хочу проливать "реальный" опыт работы. Но непонятно, что это... Есть мысли? Может число багов/clm....</t>
+          <t>Вопрос знатокам - как залогиниться в конфлюенц?</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>432</v>
+        <v>203</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$mok</t>
+          <t>+1 за парный - новый формат всегда интереснее)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1123,37 +1123,37 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>124</v>
+        <v>409</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>кепка 100% полиэстер. не понравилась</t>
+          <t>Артем, весы для багажа рассчитаны на максимальный груз 50 кг</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ляляля!!!</t>
+          <t>Потрясающе!</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>380</v>
+        <v>59</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Гиря - это вещь! Только она не даст возможности плавно менять нагрузку. А наборные гантели - дадут.</t>
+          <t>отличная новость!</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1162,37 +1162,37 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Держи)))</t>
+          <t>Занятие 27.03.2015. Количество участников.</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>я бегом полтяшок)</t>
+          <t>На мой вкус - ерунда. Качество уровня китай китайский, проще смешать в стакане закрывая ладошкой, чем смешать данным аппаратом. Долго, медленно, и мыть сие чудо нужно потом... В общем шейкер стоит на полке как акссесуар... Да и про смузи из описания надо бы убрать, не сможет он лёд мешать...</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>294</v>
+        <v>471</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Если кто-то скинет мне 5 песо, то куплю футболку... У меня всего 11 осталось((</t>
+          <t>Очень хочу проливать "реальный" опыт работы. Но непонятно, что это... Есть мысли? Может число багов/clm....</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1201,11 +1201,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>346</v>
+        <v>93</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ну возможно я.... то есть хочу, но непонятно что с работой.</t>
+          <t>Не указана длина рукава. Можете написать?</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1214,11 +1214,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>56</v>
+        <v>368</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>а офисы расширять будут?</t>
+          <t>Хочу поучаствовать в качестве участника</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1227,24 +1227,24 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>302</v>
+        <v>144</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PS Cup 2014! Оригинально? ))</t>
+          <t>Занятие 3.04.2015. Количество участников.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>В данном контексте я гирю рассматриваю, как возможность привязать её к поясу в качестве утяжелителя.</t>
+          <t>Предлагаю кроме брелков добавить еще рулетки для их крепления к одежде</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1253,24 +1253,24 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Дима, так держать! Поздравляю! Дальнейших успехов тебе!</t>
+          <t>Ну возможно я.... то есть хочу, но непонятно что с работой.</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>7</v>
+        <v>321</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"Как только вы получите ссылку на документ" Как найти документ для подписания без ссылки из письма?</t>
+          <t>Выход один, как с турником, поделиться на категории. Не удивлюсь если у нас среди 800 человек пара-тройка мастеров спорта найдется. Тут уж всем будет без шансов.</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1279,37 +1279,37 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Илья, присоединяюсь к поздравлениям!</t>
+          <t>Коллеги, а то что мед закупается в отдельной пластиковой упаковке (20 гр. меда) - это норм ? не пора ли закупать мед большими банками ? :)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Будет ли ваш питомец первым пользователем IoT в семье? Один вопрос:  https://in.billing.ru/Survey/Index/Index/1492</t>
+          <t>Видео не работает. Один раз попыталось загрузиться секунд 10, а сейчас даже плеер не отображается ):</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Готов поучаствовать как игрок</t>
+          <t>В общем, с торрентов не скачать. Если кто-то заинтересовался материалами, у меня есть скачанное видео 4 выступлений.</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1318,24 +1318,24 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Спасибо )  - Участие в регате: в зависимости от регаты и лодки. В моем случае яхта входит в ассоциацию яхт класса Л6, там еще сохранился некоторый оплот коммунизма =) Экипажи сами содержат лодки, устраивают субботники в яхт-клубе и т.д. Поэтому и взносы там небольшие. Есть взнос в судовую кассу (на ремонт, еду между гонками, шашлыки и т.д.) порядка 1 - 1,5 тыс в месяц. Единовременный взнос на гонку тоже примерно в этих лимитах. Но нужно еще включать затраты на билеты до места старта (или на бенз), на еду, шашлыки и другие маленькие радости жизни ) Есть чисто коммерческие истории: можно купить сертификат на практику на Santer'ах на сезон за 35 тыс. и учебно-тренировочно гоняться с такими же лодками хоть каждый день. Никаких судовых касс там нет.  Еще можно весной прийти в яхт-клуб на Петровской косе и поговорить с экипажами лодок. Там наверняка будут места и ребята предложат войти в экипаж на добровольных началах (или за чай с печеньками) - Выйти покататься - в прошлом сезоне можно было договориться за примерно 12 - 15 тыс за лодку (8 человек) - арендовать полностью или подсесть в сборный экипаж на выбор. Соответствующие группы можно найти в ВК. Уже на борту по договоренности с Кэпом можно попроситься поработать со шкотами (поуправлять парусами). Это индивидуально, но обычно не отказывают, если условия позволяют. - Походы - надо искать. Приглашения тоже мелькают в яхтенных группах в ВК, но надо понимать, что ты оказываешься на несколько дней в довольно тесном пространстве с одними и теми же людьми. И хорошо, если люди тебе импонируют. Так что тут осторожней ;) Приглашения на походы обычно прилетают, когда уже крутишься в яхтенной теме и тебя более-менее знают.  - Из доступных мест у нас осталось не так много. Яхт-клубы в Петербурге с завидным упорством закрывают. Из последних оплотов нормального (не элитного) яхтинга по сути только Центральный Речной Яхт Клуб Профсоюзов на Петровской косе. Там и сосредоточены и яхтенные школы и покатушки и лодки ассоциации класса Л6. Можно либо придти туда ножками и поговорить, либо поискать приглашалки на дни открытых дверей (сейчас самое время для них) Основная мысль про деньги - все не так дорого как кажется, особенно если готов потратить какое-то время и силы. Всякие лицензии по крайней мере на начальных этапах точно не нужны. Если попробовать влиться в сообщество (а оно довольно гостеприимное), то по деньгам будет самый минимум. Если нет - можно пойти по коммерческой истории и купить какой-нибудь (а-ля "подарочный") сертификат, абонемент, либо пойти на курсы с практической частью</t>
+          <t>Работать можно дольше)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Илья, предлагаешь побить рекорд? :)</t>
+          <t>Будет ли ваш питомец первым пользователем IoT в семье? Один вопрос:  https://in.billing.ru/Survey/Index/Index/1492</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1344,11 +1344,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Занятие 23.03.2015. Количество участников.</t>
+          <t>Поменяю выпавшую мне универсальную приправу вообще на ВСЕ что угодно!!! HELP!!!!</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1357,37 +1357,37 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Сломался достатоно быстро</t>
+          <t>Даже под Safari с телефона работает)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>445</v>
+        <v>178</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Я предлагаю включить расширить "дальний" конец товаров - включить в него палатку, спальный мешок и надувной матрас.</t>
+          <t>Ура!!! Ренат, мои поздравления и пожелания дальнейших трудовых успехов! Так держать!</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>323</v>
+        <v>109</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Почему одни мужчины?</t>
+          <t>Сумка именно для багажника. Чтобы загрузить ее в магазине и отвезти продукты на дачу, например:)</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1396,11 +1396,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>я на велике</t>
+          <t>а где ядовито-оранжевый цвет? ))</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1409,24 +1409,24 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>И по поводу того, что на очень длинном фокусе, если до фона очень и очень далеко, а до модели условно близко - тоже можно фон размыть. Но это не тот вариант. Все же больше для помещений вариант ищу.</t>
+          <t>Андрей, а какой счет в матчах?</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>добавил пробелов кое-где, но штука интересная..</t>
+          <t>Если футболки, то уж лучше такие http://www.themountain.com/</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1435,102 +1435,102 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Задумка отличная, но часть фломастеров бледные (красный становится бледно коричневым, розовый тоже бледный). Чёткий цвет у жёлтого, зелёного и чёрного, чего достаточно, чтобы расписать всё символикой PS :&gt;</t>
+          <t>сориентируйте по размерам пожалуйста</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>496</v>
+        <v>124</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Удобрный и хорошо держит температуру</t>
+          <t>кепка 100% полиэстер. не понравилась</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Настя, я посмотрела.  Эх, жалко, что это только тест, а то на реальные вакансии народ не спешит откликаться</t>
+          <t>Судя по новой голосовалке, мультитул растворился в тумане неизвестности?</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Круто! К новым успехам!</t>
+          <t>Фотографу нужны те объективы, которые ему нужны. :)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Классная идея!!!)</t>
+          <t>Сергей, уже вроде по плану все прошло, когда планируется результаты опубликовать?</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>236</v>
+        <v>497</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Марк, просьба организовать трансляцию по Lync либо рассмотреть возможность переноса встречи в комнату с наличием ВКС (но наверное не вариант, т.к. желающих будет много).</t>
+          <t>Сильно "так себе". В качестве жеста внимания наверное норм.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>355</v>
+        <v>485</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Паша, любые предложения по месту и реквизиту для проведения, а так же регламенту соревнований приветствуются :-)</t>
+          <t>Для текущего состояния сети можно сделать клиента-браузера. Аналог первого клиента для одноклассников. Но как минимум нужно будет открыть доступ к сети из вне.</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Браслетик выполнен из куска ленты от измерительной рулетки, залитой резиной. Как и рулетку, его можно распрямить, тогда получается палочка длиной около 30 см, которая при деформации самоскручивается. На руке чем-то похожа на браслеты, выдаваемые в некоторых (особо упоротых) пляжных отелях, только симпатичнее. По назначению использовать немного затруднительно.</t>
+          <t>Елена, я попью с Машей чай, узнаю, что конкретно умеет делать. Иначе не понятно, что хочет.</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1539,24 +1539,24 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>472</v>
+        <v>46</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>уже думали на эту тему - но тут надо делать так, чтобы фото все же было узнаваемо. возможно, следует давать возможность загружать несколько фото в дополнение к официальному.</t>
+          <t>Ну ничего себе! Что ни ответ - восторги) Особенно меня поразил факт про образование (дипломная работа и далее лаборатория). Что-то магически-фантастическое :)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>+1 за парный - новый формат всегда интереснее)</t>
+          <t>Зарядник Sanyo Eneloop с 4 аккумуляторами я бы заказал. Был бы рад увидеть его в списке. Я его собираюсь в любом случаче по возможности покупать.</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1565,37 +1565,37 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Хочу поучаствовать в качестве болельщика</t>
+          <t>Поздравляем! Отличные новости!</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>343</v>
+        <v>66</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>А почему возможности не позволяют внутренний SDD добавить, хотя бы на 128Гб ?  Он же стоит в 1.5 раза дешевле добавленного внешнего на 2Тб.</t>
+          <t>красота какая!</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Этот коммент должен проверить нотификации ;)</t>
+          <t>Надежда, спасибо, значит полезная штука.</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1604,11 +1604,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>229</v>
+        <v>479</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>+1 к участию в команде, но если не попаду, то приду болеть</t>
+          <t>Мы давно планируем открыть внешний доступ, но есть группа вопросов по безопасности ;(</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1617,11 +1617,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Да, много делает, молодец!</t>
+          <t>вот Юлька молодец. она и повышения просит и через голову не прыгает. Другая бы на мое место просилась, и я была бы недовольна. А она сразу на ген.дира! так что я не в обиде:)) Давайте примем.</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1630,24 +1630,24 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>отличная новость!</t>
+          <t>А что в ней принципиально нового?</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>кто-нибудь покупал? Как в эксплуатации?</t>
+          <t>Буду участвовать как игрок :)</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1656,37 +1656,37 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>402</v>
+        <v>189</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Когда, когда же появится мультиинструмент?</t>
+          <t>Ренат, поздравляю!!!</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Новые товары появились на этой неделе. Отправлена поставщику уже  и следующая закупка. Будем очень стараться, чтобы не было длительных пустот в маркете</t>
+          <t>Очень крута по всей видимости!</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>А если утяжеление в 32 кг для занимающегося пока велико? :)</t>
+          <t>Коллеги, отписаться от комментариев к новостям вы можете, используя настройки уведомлений, которые расположены здесь: https://in.billing.ru/News/Settings (или смотрите действия в разделе "Новости"). Эти настройки распространяются на все группы, в которых вы состоите.</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1695,15 +1695,15 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>138</v>
+        <v>470</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>На мой вкус - ерунда. Качество уровня китай китайский, проще смешать в стакане закрывая ладошкой, чем смешать данным аппаратом. Долго, медленно, и мыть сие чудо нужно потом... В общем шейкер стоит на полке как акссесуар... Да и про смузи из описания надо бы убрать, не сможет он лёд мешать...</t>
+          <t>Галки в ближайшее время добавим.</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
